--- a/calc.xlsx
+++ b/calc.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24660" windowHeight="14960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24660" windowHeight="14960" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -92,15 +92,19 @@
   </si>
   <si>
     <t>CNY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金:不干正事专用</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -118,11 +122,13 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -159,12 +165,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -175,51 +181,6 @@
         <color rgb="FF008F00"/>
       </font>
     </dxf>
-    <dxf/>
-    <dxf>
-      <font>
-        <color rgb="FF008F00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf/>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008F00"/>
-      </font>
-    </dxf>
-    <dxf/>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008F00"/>
-      </font>
-    </dxf>
-    <dxf/>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008F00"/>
-      </font>
-    </dxf>
-    <dxf/>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -230,6 +191,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -500,7 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J30"/>
     </sheetView>
   </sheetViews>
@@ -825,10 +789,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -987,18 +951,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="6">
+        <f>SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$E$2:$E$65535,$A13,Sheet1!$F$2:$F$65535,B$1)-SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$D$2:$D$65535,$A13,Sheet1!$F$2:$F$65535,B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <f>SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$E$2:$E$65535,$A13,Sheet1!$F$2:$F$65535,C$1)-SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$D$2:$D$65535,$A13,Sheet1!$F$2:$F$65535,C$1)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="B2:C12">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B2:C13">
+    <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1048576">
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/calc.xlsx
+++ b/calc.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/tmp/Cash/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/tmp/cash/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24660" windowHeight="14960" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24660" windowHeight="14960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -88,25 +91,29 @@
   </si>
   <si>
     <t>USD</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CNY</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>现金:不干正事专用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出:吃喝玩乐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -119,12 +126,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
@@ -156,21 +157,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008F00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008F00"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -462,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -496,288 +516,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
@@ -789,22 +529,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -812,12 +553,12 @@
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6">
-        <f>SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$E$2:$E$65535,$A2,Sheet1!$F$2:$F$65535,B$1)-SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$D$2:$D$65535,$A2,Sheet1!$F$2:$F$65535,B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
-        <f>SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$E$2:$E$65535,$A2,Sheet1!$F$2:$F$65535,C$1)-SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$D$2:$D$65535,$A2,Sheet1!$F$2:$F$65535,C$1)</f>
+      <c r="B2" s="5">
+        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A2,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A2,Sheet1!$F$2:$F$65475,B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A2,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A2,Sheet1!$F$2:$F$65475,C$1)</f>
         <v>0</v>
       </c>
     </row>
@@ -825,12 +566,12 @@
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6">
-        <f>SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$E$2:$E$65535,$A3,Sheet1!$F$2:$F$65535,B$1)-SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$D$2:$D$65535,$A3,Sheet1!$F$2:$F$65535,B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="6">
-        <f>SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$E$2:$E$65535,$A3,Sheet1!$F$2:$F$65535,C$1)-SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$D$2:$D$65535,$A3,Sheet1!$F$2:$F$65535,C$1)</f>
+      <c r="B3" s="5">
+        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A3,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A3,Sheet1!$F$2:$F$65475,B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A3,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A3,Sheet1!$F$2:$F$65475,C$1)</f>
         <v>0</v>
       </c>
     </row>
@@ -838,135 +579,148 @@
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6">
-        <f>SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$E$2:$E$65535,$A4,Sheet1!$F$2:$F$65535,B$1)-SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$D$2:$D$65535,$A4,Sheet1!$F$2:$F$65535,B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <f>SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$E$2:$E$65535,$A4,Sheet1!$F$2:$F$65535,C$1)-SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$D$2:$D$65535,$A4,Sheet1!$F$2:$F$65535,C$1)</f>
+      <c r="B4" s="5">
+        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A4,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A4,Sheet1!$F$2:$F$65475,B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A4,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A4,Sheet1!$F$2:$F$65475,C$1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A5,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A5,Sheet1!$F$2:$F$65475,B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A5,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A5,Sheet1!$F$2:$F$65475,C$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6">
-        <f>SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$E$2:$E$65535,$A5,Sheet1!$F$2:$F$65535,B$1)-SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$D$2:$D$65535,$A5,Sheet1!$F$2:$F$65535,B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
-        <f>SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$E$2:$E$65535,$A5,Sheet1!$F$2:$F$65535,C$1)-SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$D$2:$D$65535,$A5,Sheet1!$F$2:$F$65535,C$1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6">
-        <f>SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$E$2:$E$65535,$A6,Sheet1!$F$2:$F$65535,B$1)-SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$D$2:$D$65535,$A6,Sheet1!$F$2:$F$65535,B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="6">
-        <f>SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$E$2:$E$65535,$A6,Sheet1!$F$2:$F$65535,C$1)-SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$D$2:$D$65535,$A6,Sheet1!$F$2:$F$65535,C$1)</f>
+      <c r="B6" s="5">
+        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A6,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A6,Sheet1!$F$2:$F$65475,B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A6,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A6,Sheet1!$F$2:$F$65475,C$1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="6">
-        <f>SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$E$2:$E$65535,$A7,Sheet1!$F$2:$F$65535,B$1)-SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$D$2:$D$65535,$A7,Sheet1!$F$2:$F$65535,B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$E$2:$E$65535,$A7,Sheet1!$F$2:$F$65535,C$1)-SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$D$2:$D$65535,$A7,Sheet1!$F$2:$F$65535,C$1)</f>
+        <v>16</v>
+      </c>
+      <c r="B7" s="5">
+        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A7,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A7,Sheet1!$F$2:$F$65475,B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A7,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A7,Sheet1!$F$2:$F$65475,C$1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="6">
-        <f>SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$E$2:$E$65535,$A8,Sheet1!$F$2:$F$65535,B$1)-SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$D$2:$D$65535,$A8,Sheet1!$F$2:$F$65535,B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="6">
-        <f>SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$E$2:$E$65535,$A8,Sheet1!$F$2:$F$65535,C$1)-SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$D$2:$D$65535,$A8,Sheet1!$F$2:$F$65535,C$1)</f>
+        <v>12</v>
+      </c>
+      <c r="B8" s="5">
+        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A8,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A8,Sheet1!$F$2:$F$65475,B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A8,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A8,Sheet1!$F$2:$F$65475,C$1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6">
-        <f>SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$E$2:$E$65535,$A9,Sheet1!$F$2:$F$65535,B$1)-SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$D$2:$D$65535,$A9,Sheet1!$F$2:$F$65535,B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="6">
-        <f>SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$E$2:$E$65535,$A9,Sheet1!$F$2:$F$65535,C$1)-SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$D$2:$D$65535,$A9,Sheet1!$F$2:$F$65535,C$1)</f>
+        <v>10</v>
+      </c>
+      <c r="B9" s="5">
+        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A9,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A9,Sheet1!$F$2:$F$65475,B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A9,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A9,Sheet1!$F$2:$F$65475,C$1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6">
-        <f>SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$E$2:$E$65535,$A10,Sheet1!$F$2:$F$65535,B$1)-SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$D$2:$D$65535,$A10,Sheet1!$F$2:$F$65535,B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="6">
-        <f>SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$E$2:$E$65535,$A10,Sheet1!$F$2:$F$65535,C$1)-SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$D$2:$D$65535,$A10,Sheet1!$F$2:$F$65535,C$1)</f>
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A10,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A10,Sheet1!$F$2:$F$65475,B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A10,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A10,Sheet1!$F$2:$F$65475,C$1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="6">
-        <f>SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$E$2:$E$65535,$A11,Sheet1!$F$2:$F$65535,B$1)-SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$D$2:$D$65535,$A11,Sheet1!$F$2:$F$65535,B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="6">
-        <f>SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$E$2:$E$65535,$A11,Sheet1!$F$2:$F$65535,C$1)-SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$D$2:$D$65535,$A11,Sheet1!$F$2:$F$65535,C$1)</f>
+        <v>11</v>
+      </c>
+      <c r="B11" s="5">
+        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A11,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A11,Sheet1!$F$2:$F$65475,B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A11,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A11,Sheet1!$F$2:$F$65475,C$1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="6">
-        <f>SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$E$2:$E$65535,$A12,Sheet1!$F$2:$F$65535,B$1)-SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$D$2:$D$65535,$A12,Sheet1!$F$2:$F$65535,B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="6">
-        <f>SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$E$2:$E$65535,$A12,Sheet1!$F$2:$F$65535,C$1)-SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$D$2:$D$65535,$A12,Sheet1!$F$2:$F$65535,C$1)</f>
+        <v>17</v>
+      </c>
+      <c r="B12" s="5">
+        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A12,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A12,Sheet1!$F$2:$F$65475,B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A12,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A12,Sheet1!$F$2:$F$65475,C$1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="5">
+        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A13,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A13,Sheet1!$F$2:$F$65475,B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A13,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A13,Sheet1!$F$2:$F$65475,C$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="6">
-        <f>SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$E$2:$E$65535,$A13,Sheet1!$F$2:$F$65535,B$1)-SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$D$2:$D$65535,$A13,Sheet1!$F$2:$F$65535,B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="6">
-        <f>SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$E$2:$E$65535,$A13,Sheet1!$F$2:$F$65535,C$1)-SUMIFS(Sheet1!$G$2:$G$65535,Sheet1!$D$2:$D$65535,$A13,Sheet1!$F$2:$F$65535,C$1)</f>
+      <c r="B14" s="5">
+        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A14,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A14,Sheet1!$F$2:$F$65475,B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A14,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A14,Sheet1!$F$2:$F$65475,C$1)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="B2:C13">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="B2:C14">
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/calc.xlsx
+++ b/calc.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/tmp/cash/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/tmp/Cash/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24660" windowHeight="14960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24660" windowHeight="14960" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,20 @@
   </si>
   <si>
     <t>支出:吃喝玩乐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出:杂项</t>
+    <rPh sb="0" eb="2">
+      <t>za xiang</t>
+    </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -170,27 +177,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008F00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008F00"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -484,7 +471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -529,10 +516,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -554,11 +541,11 @@
         <v>9</v>
       </c>
       <c r="B2" s="5">
-        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A2,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A2,Sheet1!$F$2:$F$65475,B$1)</f>
+        <f ca="1">SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A2,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A2,Sheet1!$F$2:$F$65475,B$1)</f>
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A2,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A2,Sheet1!$F$2:$F$65475,C$1)</f>
+        <f ca="1">SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A2,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A2,Sheet1!$F$2:$F$65475,C$1)</f>
         <v>0</v>
       </c>
     </row>
@@ -567,11 +554,11 @@
         <v>14</v>
       </c>
       <c r="B3" s="5">
-        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A3,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A3,Sheet1!$F$2:$F$65475,B$1)</f>
+        <f ca="1">SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A3,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A3,Sheet1!$F$2:$F$65475,B$1)</f>
         <v>0</v>
       </c>
       <c r="C3" s="5">
-        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A3,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A3,Sheet1!$F$2:$F$65475,C$1)</f>
+        <f ca="1">SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A3,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A3,Sheet1!$F$2:$F$65475,C$1)</f>
         <v>0</v>
       </c>
     </row>
@@ -580,147 +567,160 @@
         <v>13</v>
       </c>
       <c r="B4" s="5">
-        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A4,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A4,Sheet1!$F$2:$F$65475,B$1)</f>
+        <f ca="1">SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A4,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A4,Sheet1!$F$2:$F$65475,B$1)</f>
         <v>0</v>
       </c>
       <c r="C4" s="5">
-        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A4,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A4,Sheet1!$F$2:$F$65475,C$1)</f>
+        <f ca="1">SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A4,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A4,Sheet1!$F$2:$F$65475,C$1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5">
+        <f ca="1">SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A5,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A5,Sheet1!$F$2:$F$65475,B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <f ca="1">SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A5,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A5,Sheet1!$F$2:$F$65475,C$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="5">
-        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A5,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A5,Sheet1!$F$2:$F$65475,B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A5,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A5,Sheet1!$F$2:$F$65475,C$1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="5">
+        <f ca="1">SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A6,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A6,Sheet1!$F$2:$F$65475,B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <f ca="1">SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A6,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A6,Sheet1!$F$2:$F$65475,C$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5">
-        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A6,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A6,Sheet1!$F$2:$F$65475,B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A6,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A6,Sheet1!$F$2:$F$65475,C$1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
       <c r="B7" s="5">
-        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A7,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A7,Sheet1!$F$2:$F$65475,B$1)</f>
+        <f ca="1">SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A7,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A7,Sheet1!$F$2:$F$65475,B$1)</f>
         <v>0</v>
       </c>
       <c r="C7" s="5">
-        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A7,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A7,Sheet1!$F$2:$F$65475,C$1)</f>
+        <f ca="1">SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A7,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A7,Sheet1!$F$2:$F$65475,C$1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5">
-        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A8,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A8,Sheet1!$F$2:$F$65475,B$1)</f>
+        <f ca="1">SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A8,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A8,Sheet1!$F$2:$F$65475,B$1)</f>
         <v>0</v>
       </c>
       <c r="C8" s="5">
-        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A8,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A8,Sheet1!$F$2:$F$65475,C$1)</f>
+        <f ca="1">SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A8,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A8,Sheet1!$F$2:$F$65475,C$1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5">
-        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A9,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A9,Sheet1!$F$2:$F$65475,B$1)</f>
+        <f ca="1">SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A9,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A9,Sheet1!$F$2:$F$65475,B$1)</f>
         <v>0</v>
       </c>
       <c r="C9" s="5">
-        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A9,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A9,Sheet1!$F$2:$F$65475,C$1)</f>
+        <f ca="1">SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A9,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A9,Sheet1!$F$2:$F$65475,C$1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5">
-        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A10,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A10,Sheet1!$F$2:$F$65475,B$1)</f>
+        <f ca="1">SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A10,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A10,Sheet1!$F$2:$F$65475,B$1)</f>
         <v>0</v>
       </c>
       <c r="C10" s="5">
-        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A10,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A10,Sheet1!$F$2:$F$65475,C$1)</f>
+        <f ca="1">SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A10,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A10,Sheet1!$F$2:$F$65475,C$1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B11" s="5">
-        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A11,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A11,Sheet1!$F$2:$F$65475,B$1)</f>
+        <f ca="1">SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A11,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A11,Sheet1!$F$2:$F$65475,B$1)</f>
         <v>0</v>
       </c>
       <c r="C11" s="5">
-        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A11,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A11,Sheet1!$F$2:$F$65475,C$1)</f>
+        <f ca="1">SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A11,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A11,Sheet1!$F$2:$F$65475,C$1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5">
-        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A12,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A12,Sheet1!$F$2:$F$65475,B$1)</f>
+        <f ca="1">SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A12,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A12,Sheet1!$F$2:$F$65475,B$1)</f>
         <v>0</v>
       </c>
       <c r="C12" s="5">
-        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A12,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A12,Sheet1!$F$2:$F$65475,C$1)</f>
+        <f ca="1">SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A12,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A12,Sheet1!$F$2:$F$65475,C$1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="5">
-        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A13,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A13,Sheet1!$F$2:$F$65475,B$1)</f>
+        <f ca="1">SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A13,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A13,Sheet1!$F$2:$F$65475,B$1)</f>
         <v>0</v>
       </c>
       <c r="C13" s="5">
-        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A13,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A13,Sheet1!$F$2:$F$65475,C$1)</f>
+        <f ca="1">SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A13,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A13,Sheet1!$F$2:$F$65475,C$1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5">
+        <f ca="1">SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A14,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A14,Sheet1!$F$2:$F$65475,B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <f ca="1">SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A14,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A14,Sheet1!$F$2:$F$65475,C$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="5">
-        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A14,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A14,Sheet1!$F$2:$F$65475,B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="5">
-        <f>SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A14,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A14,Sheet1!$F$2:$F$65475,C$1)</f>
+      <c r="B15" s="5">
+        <f ca="1">SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A15,Sheet1!$F$2:$F$65475,B$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A15,Sheet1!$F$2:$F$65475,B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <f ca="1">SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$E$2:$E$65475,$A15,Sheet1!$F$2:$F$65475,C$1)-SUMIFS(Sheet1!$G$2:$G$65475,Sheet1!$D$2:$D$65475,$A15,Sheet1!$F$2:$F$65475,C$1)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B2:C14">
+  <conditionalFormatting sqref="B2:C15">
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
